--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,11 +134,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -179,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,9 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -214,20 +206,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -578,7 +558,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,104 +578,83 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>739.77</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
         <v>9260.23</v>
       </c>
-      <c r="F2" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="F2" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>672.51</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>147.94999999999999</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <v>524.55999999999995</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>46.03</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -704,10 +663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -716,744 +675,724 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>10000</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="12"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>785.8</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>101.92</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="11">
         <v>841.69</v>
       </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
         <v>841.69</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>46.03</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>42050</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>42050</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>46.03</v>
       </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>46.03</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>46.03</v>
       </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
         <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>42064</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>841.69</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>8372.51</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>46.03</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
         <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>31</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>42095</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>793.34</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>7579.17</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>94.38</v>
       </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
         <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>30</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>42125</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>812.97</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>6766.2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>74.75</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
         <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>31</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>42156</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>818.76</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>5947.44</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>68.959999999999994</v>
       </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
         <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>30</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>42186</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>829.06</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>5118.38</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>58.66</v>
       </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>31</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>42217</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>835.55</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>4282.83</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>52.17</v>
       </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
         <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>31</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>42248</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>844.07</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>3438.76</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>43.65</v>
       </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
         <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>30</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>42278</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>853.8</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>2584.96</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>33.92</v>
       </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
         <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>31</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>42309</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>861.37</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>1723.59</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>26.35</v>
       </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>30</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>42339</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>870.72</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>852.87</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>17</v>
       </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
         <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>887.72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>31</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>42370</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>852.87</v>
       </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
         <v>8.69</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
         <v>861.56</v>
       </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12">
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
         <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>861.56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="P16" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C16:E16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1404,7 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1497,78 +1436,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>42050</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="11">
         <v>739.77</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>147.94999999999999</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>9260.23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K6"/>
-      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -119,15 +119,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -184,52 +179,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +554,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>42050</v>
       </c>
     </row>
@@ -567,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -580,105 +578,124 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
-        <v>637.85</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9362.15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1781.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>692.7</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B2" s="12">
+        <v>739.77</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>9260.23</v>
+      </c>
+      <c r="F2" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>672.51</v>
+      </c>
+      <c r="B3" s="12">
         <v>147.94999999999999</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>544.75</v>
-      </c>
-      <c r="F3" s="3">
-        <v>141.44999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>524.55999999999995</v>
+      </c>
+      <c r="F3" s="12">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,10 +704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,328 +715,860 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="12">
         <v>31</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="15">
         <v>42036</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="D3" s="12"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>785.8</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="13">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>785.8</v>
-      </c>
-      <c r="L2" s="7">
-        <v>637.85</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>637.85</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>147.94999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="H3" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="12">
+        <v>841.69</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>841.69</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="12">
         <v>14</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="15">
         <v>42050</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="15">
         <v>42050</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="7">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="L3" s="7">
-        <v>147.94999999999999</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="H4" s="12">
+        <v>46.03</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>46.03</v>
+      </c>
+      <c r="L4" s="12">
+        <v>46.03</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="12">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="15">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>844.63</v>
-      </c>
-      <c r="G4" s="9">
-        <v>8369.57</v>
-      </c>
-      <c r="H4" s="7">
-        <v>43.09</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>887.72</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>841.69</v>
+      </c>
+      <c r="G5" s="13">
+        <v>8372.51</v>
+      </c>
+      <c r="H5" s="12">
+        <v>46.03</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>793.34</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7579.17</v>
+      </c>
+      <c r="H6" s="12">
+        <v>94.38</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>812.97</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6766.2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>74.75</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>818.76</v>
+      </c>
+      <c r="G8" s="13">
+        <v>5947.44</v>
+      </c>
+      <c r="H8" s="12">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>829.06</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5118.38</v>
+      </c>
+      <c r="H9" s="12">
+        <v>58.66</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>835.55</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4282.83</v>
+      </c>
+      <c r="H10" s="12">
+        <v>52.17</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>844.07</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3438.76</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43.65</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>853.8</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2584.96</v>
+      </c>
+      <c r="H12" s="12">
+        <v>33.92</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>861.37</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1723.59</v>
+      </c>
+      <c r="H13" s="12">
+        <v>26.35</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>870.72</v>
+      </c>
+      <c r="G14" s="12">
+        <v>852.87</v>
+      </c>
+      <c r="H14" s="12">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>852.87</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>8.69</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>861.56</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>861.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="P16" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="15">
+        <v>42050</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="10">
-        <v>785.8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>101.92</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>9214.2000000000007</v>
+      <c r="E2" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="12">
+        <v>739.77</v>
+      </c>
+      <c r="G2" s="12">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9260.23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>10000</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -219,6 +224,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -266,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +307,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -663,10 +705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,7 +716,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -714,17 +756,18 @@
       <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="13">
@@ -751,12 +794,13 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="11"/>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -794,17 +838,18 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
         <v>841.69</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>46.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -844,17 +889,18 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -892,17 +938,18 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -940,17 +987,18 @@
       <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -988,17 +1036,18 @@
       <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1036,17 +1085,18 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1084,17 +1134,18 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1132,17 +1183,18 @@
       <c r="M10" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1180,17 +1232,18 @@
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1228,17 +1281,18 @@
       <c r="M12" s="11">
         <v>0</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1276,17 +1330,18 @@
       <c r="M13" s="11">
         <v>0</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1324,17 +1379,18 @@
       <c r="M14" s="11">
         <v>0</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1372,13 +1428,14 @@
       <c r="M15" s="11">
         <v>0</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
         <v>861.56</v>
       </c>
     </row>
